--- a/wikiimages/Puzzle-14.xlsx
+++ b/wikiimages/Puzzle-14.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>white_king</t>
   </si>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dhvnish" refreshedDate="42365.559746643521" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42373.49870625" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -229,14 +229,15 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="12">
         <s v="black_rook"/>
         <m/>
+        <s v="black_bishop"/>
         <s v="black_queen"/>
         <s v="black_king"/>
         <s v="black_pawn"/>
-        <s v="black_bishop"/>
-        <s v="white_knight"/>
+        <s v="black_knight"/>
+        <s v="white_bishop"/>
         <s v="white_queen"/>
         <s v="white_pawn"/>
         <s v="white_rook"/>
@@ -267,17 +268,17 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -292,282 +293,282 @@
   <r>
     <x v="0"/>
     <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="2"/>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
     <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="6"/>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="7"/>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="7"/>
     <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="10"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="7"/>
@@ -578,7 +579,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -934,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,12 +974,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1019,15 +1023,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,12 +1075,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
         <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1090,26 +1094,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
         <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1120,15 +1118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1155,12 +1150,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1179,15 +1177,18 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
         <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1206,15 +1207,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29">
         <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1233,23 +1231,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33">
         <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1276,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1287,15 +1285,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38">
         <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1322,15 +1317,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1349,12 +1341,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
       <c r="B45">
         <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1389,34 +1384,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
       <c r="B52">
         <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1503,23 +1495,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
       <c r="B63">
         <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,7 +1564,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1582,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N14"/>
+  <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,12 +1585,12 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>0</v>
       </c>
@@ -1627,7 +1619,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1651,7 +1646,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1675,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -1697,7 +1698,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1721,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
@@ -1735,7 +1742,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -1753,7 +1763,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +1790,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1799,7 +1815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1828,12 +1844,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
         <v>9</v>
       </c>

--- a/wikiimages/Puzzle-14.xlsx
+++ b/wikiimages/Puzzle-14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>white_king</t>
   </si>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C64"/>
     </sheetView>
   </sheetViews>
@@ -1576,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1708,9 @@
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2" t="s">
@@ -1748,7 +1750,9 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
